--- a/2des/bcd/aula03/exercicios/exercicio3.xlsx
+++ b/2des/bcd/aula03/exercicios/exercicio3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2021\2des\bcd\aula04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2022\2des\bcd\aula03\exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A59704-28DD-460E-9D8F-F7EE8A00C404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NORMALIZAR" sheetId="1" r:id="rId1"/>
@@ -29,9 +30,6 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Telefone</t>
   </si>
   <si>
@@ -83,9 +81,6 @@
     <t>ID_Linha</t>
   </si>
   <si>
-    <t>Descrição</t>
-  </si>
-  <si>
     <t>Linha1</t>
   </si>
   <si>
@@ -132,12 +127,18 @@
   </si>
   <si>
     <t>7:45, 9:30, 11:40, 14:50, 17:30, 21:30</t>
+  </si>
+  <si>
+    <t>Nome_motorista</t>
+  </si>
+  <si>
+    <t>Descrição_linha</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,10 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -477,119 +480,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
